--- a/Employee_Reports21/Harikaran Seenithamby Q0591.xlsx
+++ b/Employee_Reports21/Harikaran Seenithamby Q0591.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1028,11 +1028,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1110,11 +1110,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
